--- a/output/table_s2~s5/VL3-BA.xlsx
+++ b/output/table_s2~s5/VL3-BA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output/table_s2~s5/VL3-BA.xlsx
+++ b/output/table_s2~s5/VL3-BA.xlsx
@@ -492,7 +492,7 @@
         <v>14638</v>
       </c>
       <c r="G2" t="n">
-        <v>479184</v>
+        <v>479203</v>
       </c>
       <c r="H2" t="n">
         <v>317109</v>
@@ -520,7 +520,7 @@
         <v>1831</v>
       </c>
       <c r="G3" t="n">
-        <v>175639</v>
+        <v>175643</v>
       </c>
       <c r="H3" t="n">
         <v>85699</v>
@@ -548,10 +548,10 @@
         <v>11065</v>
       </c>
       <c r="G4" t="n">
-        <v>330054</v>
+        <v>330080</v>
       </c>
       <c r="H4" t="n">
-        <v>207954</v>
+        <v>207956</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +576,10 @@
         <v>19096</v>
       </c>
       <c r="G5" t="n">
-        <v>399917</v>
+        <v>399940</v>
       </c>
       <c r="H5" t="n">
-        <v>406605</v>
+        <v>406608</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
         <v>4381</v>
       </c>
       <c r="G6" t="n">
-        <v>323995</v>
+        <v>324013</v>
       </c>
       <c r="H6" t="n">
         <v>90408</v>
@@ -632,7 +632,7 @@
         <v>17165</v>
       </c>
       <c r="G7" t="n">
-        <v>431329</v>
+        <v>431350</v>
       </c>
       <c r="H7" t="n">
         <v>315029</v>
@@ -660,7 +660,7 @@
         <v>4516</v>
       </c>
       <c r="G8" t="n">
-        <v>191466</v>
+        <v>191475</v>
       </c>
       <c r="H8" t="n">
         <v>106337</v>
@@ -688,10 +688,10 @@
         <v>5256</v>
       </c>
       <c r="G9" t="n">
-        <v>378818</v>
+        <v>378838</v>
       </c>
       <c r="H9" t="n">
-        <v>113798</v>
+        <v>113800</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +716,10 @@
         <v>14782</v>
       </c>
       <c r="G10" t="n">
-        <v>360020</v>
+        <v>360043</v>
       </c>
       <c r="H10" t="n">
-        <v>290936</v>
+        <v>290938</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +744,10 @@
         <v>13770</v>
       </c>
       <c r="G11" t="n">
-        <v>771466</v>
+        <v>771505</v>
       </c>
       <c r="H11" t="n">
-        <v>359906</v>
+        <v>359909</v>
       </c>
     </row>
     <row r="12">
@@ -772,7 +772,7 @@
         <v>4153</v>
       </c>
       <c r="G12" t="n">
-        <v>159972</v>
+        <v>159982</v>
       </c>
       <c r="H12" t="n">
         <v>82182</v>
@@ -800,10 +800,10 @@
         <v>7392</v>
       </c>
       <c r="G13" t="n">
-        <v>274689</v>
+        <v>274701</v>
       </c>
       <c r="H13" t="n">
-        <v>132975</v>
+        <v>132976</v>
       </c>
     </row>
     <row r="14">
@@ -828,7 +828,7 @@
         <v>19320</v>
       </c>
       <c r="G14" t="n">
-        <v>320465</v>
+        <v>320476</v>
       </c>
       <c r="H14" t="n">
         <v>396730</v>
@@ -856,10 +856,10 @@
         <v>11801</v>
       </c>
       <c r="G15" t="n">
-        <v>295523</v>
+        <v>295531</v>
       </c>
       <c r="H15" t="n">
-        <v>246044</v>
+        <v>246048</v>
       </c>
     </row>
     <row r="16">
@@ -884,7 +884,7 @@
         <v>16885</v>
       </c>
       <c r="G16" t="n">
-        <v>355322</v>
+        <v>355342</v>
       </c>
       <c r="H16" t="n">
         <v>284782</v>
@@ -912,10 +912,10 @@
         <v>23691</v>
       </c>
       <c r="G17" t="n">
-        <v>477193</v>
+        <v>477217</v>
       </c>
       <c r="H17" t="n">
-        <v>468699</v>
+        <v>468701</v>
       </c>
     </row>
     <row r="18">
@@ -940,10 +940,10 @@
         <v>10169</v>
       </c>
       <c r="G18" t="n">
-        <v>370553</v>
+        <v>370569</v>
       </c>
       <c r="H18" t="n">
-        <v>237124</v>
+        <v>237125</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +968,10 @@
         <v>9252</v>
       </c>
       <c r="G19" t="n">
-        <v>478540</v>
+        <v>478562</v>
       </c>
       <c r="H19" t="n">
-        <v>198762</v>
+        <v>198763</v>
       </c>
     </row>
     <row r="20">
@@ -996,7 +996,7 @@
         <v>1284</v>
       </c>
       <c r="G20" t="n">
-        <v>113608</v>
+        <v>113612</v>
       </c>
       <c r="H20" t="n">
         <v>24469</v>
@@ -1024,10 +1024,10 @@
         <v>4405</v>
       </c>
       <c r="G21" t="n">
-        <v>238281</v>
+        <v>238289</v>
       </c>
       <c r="H21" t="n">
-        <v>64254</v>
+        <v>64256</v>
       </c>
     </row>
     <row r="22">
@@ -1052,10 +1052,10 @@
         <v>229082</v>
       </c>
       <c r="G22" t="n">
-        <v>4429802</v>
+        <v>4429825</v>
       </c>
       <c r="H22" t="n">
-        <v>6926034</v>
+        <v>6926371</v>
       </c>
     </row>
     <row r="23">
@@ -1080,10 +1080,10 @@
         <v>443934</v>
       </c>
       <c r="G23" t="n">
-        <v>11355836</v>
+        <v>11356196</v>
       </c>
       <c r="H23" t="n">
-        <v>11355836</v>
+        <v>11356196</v>
       </c>
     </row>
   </sheetData>

--- a/output/table_s2~s5/VL3-BA.xlsx
+++ b/output/table_s2~s5/VL3-BA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,62 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>human_order</t>
+          <t>trbp_order</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>human_disorder</t>
+          <t>trbp_disorder</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>snrbp_order</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>snrbp_disorder</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>snorbp_order</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>snorbp_disorder</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ncrbp_order</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ncrbp_disorder</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rrbp_order</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>rrbp_disorder</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>irrbp_order</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>irrbp_disorder</t>
         </is>
       </c>
     </row>
@@ -492,10 +542,40 @@
         <v>14638</v>
       </c>
       <c r="G2" t="n">
-        <v>479203</v>
+        <v>4407</v>
       </c>
       <c r="H2" t="n">
-        <v>317109</v>
+        <v>1475</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1969</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1289</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1084</v>
+      </c>
+      <c r="L2" t="n">
+        <v>740</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3589</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2284</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2691</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2295</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1470</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1012</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +600,40 @@
         <v>1831</v>
       </c>
       <c r="G3" t="n">
-        <v>175643</v>
+        <v>1313</v>
       </c>
       <c r="H3" t="n">
-        <v>85699</v>
+        <v>299</v>
+      </c>
+      <c r="I3" t="n">
+        <v>603</v>
+      </c>
+      <c r="J3" t="n">
+        <v>175</v>
+      </c>
+      <c r="K3" t="n">
+        <v>280</v>
+      </c>
+      <c r="L3" t="n">
+        <v>78</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1531</v>
+      </c>
+      <c r="N3" t="n">
+        <v>566</v>
+      </c>
+      <c r="O3" t="n">
+        <v>782</v>
+      </c>
+      <c r="P3" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>364</v>
+      </c>
+      <c r="R3" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="4">
@@ -548,10 +658,40 @@
         <v>11065</v>
       </c>
       <c r="G4" t="n">
-        <v>330080</v>
+        <v>3199</v>
       </c>
       <c r="H4" t="n">
-        <v>207956</v>
+        <v>949</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1459</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1108</v>
+      </c>
+      <c r="K4" t="n">
+        <v>740</v>
+      </c>
+      <c r="L4" t="n">
+        <v>533</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3036</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1783</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1914</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1833</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>847</v>
+      </c>
+      <c r="R4" t="n">
+        <v>413</v>
       </c>
     </row>
     <row r="5">
@@ -576,10 +716,40 @@
         <v>19096</v>
       </c>
       <c r="G5" t="n">
-        <v>399940</v>
+        <v>4001</v>
       </c>
       <c r="H5" t="n">
-        <v>406608</v>
+        <v>1988</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1882</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2195</v>
+      </c>
+      <c r="K5" t="n">
+        <v>964</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1276</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3616</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3391</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2189</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3614</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1073</v>
+      </c>
+      <c r="R5" t="n">
+        <v>904</v>
       </c>
     </row>
     <row r="6">
@@ -604,10 +774,40 @@
         <v>4381</v>
       </c>
       <c r="G6" t="n">
-        <v>324013</v>
+        <v>2749</v>
       </c>
       <c r="H6" t="n">
-        <v>90408</v>
+        <v>321</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1193</v>
+      </c>
+      <c r="J6" t="n">
+        <v>372</v>
+      </c>
+      <c r="K6" t="n">
+        <v>699</v>
+      </c>
+      <c r="L6" t="n">
+        <v>194</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2731</v>
+      </c>
+      <c r="N6" t="n">
+        <v>753</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1724</v>
+      </c>
+      <c r="P6" t="n">
+        <v>659</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>804</v>
+      </c>
+      <c r="R6" t="n">
+        <v>268</v>
       </c>
     </row>
     <row r="7">
@@ -632,10 +832,40 @@
         <v>17165</v>
       </c>
       <c r="G7" t="n">
-        <v>431350</v>
+        <v>4102</v>
       </c>
       <c r="H7" t="n">
-        <v>315029</v>
+        <v>1283</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1496</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1267</v>
+      </c>
+      <c r="K7" t="n">
+        <v>849</v>
+      </c>
+      <c r="L7" t="n">
+        <v>635</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3222</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2266</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2213</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1851</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1361</v>
+      </c>
+      <c r="R7" t="n">
+        <v>753</v>
       </c>
     </row>
     <row r="8">
@@ -660,10 +890,40 @@
         <v>4516</v>
       </c>
       <c r="G8" t="n">
-        <v>191475</v>
+        <v>1744</v>
       </c>
       <c r="H8" t="n">
-        <v>106337</v>
+        <v>313</v>
+      </c>
+      <c r="I8" t="n">
+        <v>811</v>
+      </c>
+      <c r="J8" t="n">
+        <v>448</v>
+      </c>
+      <c r="K8" t="n">
+        <v>464</v>
+      </c>
+      <c r="L8" t="n">
+        <v>128</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1720</v>
+      </c>
+      <c r="N8" t="n">
+        <v>784</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1083</v>
+      </c>
+      <c r="P8" t="n">
+        <v>509</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>579</v>
+      </c>
+      <c r="R8" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -688,10 +948,40 @@
         <v>5256</v>
       </c>
       <c r="G9" t="n">
-        <v>378838</v>
+        <v>3251</v>
       </c>
       <c r="H9" t="n">
-        <v>113800</v>
+        <v>478</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1612</v>
+      </c>
+      <c r="J9" t="n">
+        <v>511</v>
+      </c>
+      <c r="K9" t="n">
+        <v>877</v>
+      </c>
+      <c r="L9" t="n">
+        <v>271</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3298</v>
+      </c>
+      <c r="N9" t="n">
+        <v>940</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1964</v>
+      </c>
+      <c r="P9" t="n">
+        <v>768</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1175</v>
+      </c>
+      <c r="R9" t="n">
+        <v>429</v>
       </c>
     </row>
     <row r="10">
@@ -716,10 +1006,40 @@
         <v>14782</v>
       </c>
       <c r="G10" t="n">
-        <v>360043</v>
+        <v>3617</v>
       </c>
       <c r="H10" t="n">
-        <v>290938</v>
+        <v>1605</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1654</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1807</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1050</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1151</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3664</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2779</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2435</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3453</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1577</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1567</v>
       </c>
     </row>
     <row r="11">
@@ -744,10 +1064,40 @@
         <v>13770</v>
       </c>
       <c r="G11" t="n">
-        <v>771505</v>
+        <v>6522</v>
       </c>
       <c r="H11" t="n">
-        <v>359909</v>
+        <v>1614</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3293</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1442</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1868</v>
+      </c>
+      <c r="L11" t="n">
+        <v>722</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6537</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2759</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4638</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2384</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1966</v>
+      </c>
+      <c r="R11" t="n">
+        <v>965</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +1122,40 @@
         <v>4153</v>
       </c>
       <c r="G12" t="n">
-        <v>159982</v>
+        <v>1319</v>
       </c>
       <c r="H12" t="n">
-        <v>82182</v>
+        <v>362</v>
+      </c>
+      <c r="I12" t="n">
+        <v>746</v>
+      </c>
+      <c r="J12" t="n">
+        <v>453</v>
+      </c>
+      <c r="K12" t="n">
+        <v>328</v>
+      </c>
+      <c r="L12" t="n">
+        <v>166</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1227</v>
+      </c>
+      <c r="N12" t="n">
+        <v>697</v>
+      </c>
+      <c r="O12" t="n">
+        <v>855</v>
+      </c>
+      <c r="P12" t="n">
+        <v>583</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>484</v>
+      </c>
+      <c r="R12" t="n">
+        <v>288</v>
       </c>
     </row>
     <row r="13">
@@ -800,10 +1180,40 @@
         <v>7392</v>
       </c>
       <c r="G13" t="n">
-        <v>274701</v>
+        <v>2053</v>
       </c>
       <c r="H13" t="n">
-        <v>132976</v>
+        <v>508</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1150</v>
+      </c>
+      <c r="J13" t="n">
+        <v>511</v>
+      </c>
+      <c r="K13" t="n">
+        <v>516</v>
+      </c>
+      <c r="L13" t="n">
+        <v>270</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2543</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1318</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1253</v>
+      </c>
+      <c r="P13" t="n">
+        <v>888</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>756</v>
+      </c>
+      <c r="R13" t="n">
+        <v>334</v>
       </c>
     </row>
     <row r="14">
@@ -828,10 +1238,40 @@
         <v>19320</v>
       </c>
       <c r="G14" t="n">
-        <v>320476</v>
+        <v>2950</v>
       </c>
       <c r="H14" t="n">
-        <v>396730</v>
+        <v>1351</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1296</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1623</v>
+      </c>
+      <c r="K14" t="n">
+        <v>626</v>
+      </c>
+      <c r="L14" t="n">
+        <v>636</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2820</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2989</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1810</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1932</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>987</v>
+      </c>
+      <c r="R14" t="n">
+        <v>842</v>
       </c>
     </row>
     <row r="15">
@@ -856,10 +1296,40 @@
         <v>11801</v>
       </c>
       <c r="G15" t="n">
-        <v>295531</v>
+        <v>2709</v>
       </c>
       <c r="H15" t="n">
-        <v>246048</v>
+        <v>1019</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1365</v>
+      </c>
+      <c r="J15" t="n">
+        <v>983</v>
+      </c>
+      <c r="K15" t="n">
+        <v>629</v>
+      </c>
+      <c r="L15" t="n">
+        <v>462</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2814</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1719</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1742</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1586</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>732</v>
+      </c>
+      <c r="R15" t="n">
+        <v>538</v>
       </c>
     </row>
     <row r="16">
@@ -884,10 +1354,40 @@
         <v>16885</v>
       </c>
       <c r="G16" t="n">
-        <v>355342</v>
+        <v>3419</v>
       </c>
       <c r="H16" t="n">
-        <v>284782</v>
+        <v>1268</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1575</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1768</v>
+      </c>
+      <c r="K16" t="n">
+        <v>779</v>
+      </c>
+      <c r="L16" t="n">
+        <v>593</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3170</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2238</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2217</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2264</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1530</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1298</v>
       </c>
     </row>
     <row r="17">
@@ -912,10 +1412,40 @@
         <v>23691</v>
       </c>
       <c r="G17" t="n">
-        <v>477217</v>
+        <v>3621</v>
       </c>
       <c r="H17" t="n">
-        <v>468701</v>
+        <v>1456</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1751</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1782</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1051</v>
+      </c>
+      <c r="L17" t="n">
+        <v>798</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3875</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3719</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2453</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2575</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>988</v>
+      </c>
+      <c r="R17" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="18">
@@ -940,10 +1470,40 @@
         <v>10169</v>
       </c>
       <c r="G18" t="n">
-        <v>370569</v>
+        <v>3120</v>
       </c>
       <c r="H18" t="n">
-        <v>237125</v>
+        <v>802</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1439</v>
+      </c>
+      <c r="J18" t="n">
+        <v>818</v>
+      </c>
+      <c r="K18" t="n">
+        <v>799</v>
+      </c>
+      <c r="L18" t="n">
+        <v>379</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2957</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1702</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1982</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1373</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1078</v>
+      </c>
+      <c r="R18" t="n">
+        <v>552</v>
       </c>
     </row>
     <row r="19">
@@ -968,10 +1528,40 @@
         <v>9252</v>
       </c>
       <c r="G19" t="n">
-        <v>478562</v>
+        <v>4495</v>
       </c>
       <c r="H19" t="n">
-        <v>198763</v>
+        <v>926</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1872</v>
+      </c>
+      <c r="J19" t="n">
+        <v>861</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1159</v>
+      </c>
+      <c r="L19" t="n">
+        <v>475</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4135</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1474</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2881</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1401</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1571</v>
+      </c>
+      <c r="R19" t="n">
+        <v>690</v>
       </c>
     </row>
     <row r="20">
@@ -996,10 +1586,40 @@
         <v>1284</v>
       </c>
       <c r="G20" t="n">
-        <v>113612</v>
+        <v>904</v>
       </c>
       <c r="H20" t="n">
-        <v>24469</v>
+        <v>109</v>
+      </c>
+      <c r="I20" t="n">
+        <v>457</v>
+      </c>
+      <c r="J20" t="n">
+        <v>96</v>
+      </c>
+      <c r="K20" t="n">
+        <v>180</v>
+      </c>
+      <c r="L20" t="n">
+        <v>50</v>
+      </c>
+      <c r="M20" t="n">
+        <v>884</v>
+      </c>
+      <c r="N20" t="n">
+        <v>171</v>
+      </c>
+      <c r="O20" t="n">
+        <v>478</v>
+      </c>
+      <c r="P20" t="n">
+        <v>154</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>309</v>
+      </c>
+      <c r="R20" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="21">
@@ -1024,10 +1644,40 @@
         <v>4405</v>
       </c>
       <c r="G21" t="n">
-        <v>238289</v>
+        <v>1900</v>
       </c>
       <c r="H21" t="n">
-        <v>64256</v>
+        <v>215</v>
+      </c>
+      <c r="I21" t="n">
+        <v>973</v>
+      </c>
+      <c r="J21" t="n">
+        <v>274</v>
+      </c>
+      <c r="K21" t="n">
+        <v>449</v>
+      </c>
+      <c r="L21" t="n">
+        <v>127</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2120</v>
+      </c>
+      <c r="N21" t="n">
+        <v>510</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1094</v>
+      </c>
+      <c r="P21" t="n">
+        <v>340</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>660</v>
+      </c>
+      <c r="R21" t="n">
+        <v>272</v>
       </c>
     </row>
     <row r="22">
@@ -1052,10 +1702,40 @@
         <v>229082</v>
       </c>
       <c r="G22" t="n">
-        <v>4429825</v>
+        <v>18341</v>
       </c>
       <c r="H22" t="n">
-        <v>6926371</v>
+        <v>61395</v>
+      </c>
+      <c r="I22" t="n">
+        <v>19783</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28596</v>
+      </c>
+      <c r="K22" t="n">
+        <v>9684</v>
+      </c>
+      <c r="L22" t="n">
+        <v>15391</v>
+      </c>
+      <c r="M22" t="n">
+        <v>34842</v>
+      </c>
+      <c r="N22" t="n">
+        <v>59489</v>
+      </c>
+      <c r="O22" t="n">
+        <v>30698</v>
+      </c>
+      <c r="P22" t="n">
+        <v>38398</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>12314</v>
+      </c>
+      <c r="R22" t="n">
+        <v>20311</v>
       </c>
     </row>
     <row r="23">
@@ -1080,10 +1760,40 @@
         <v>443934</v>
       </c>
       <c r="G23" t="n">
-        <v>11356196</v>
+        <v>79736</v>
       </c>
       <c r="H23" t="n">
-        <v>11356196</v>
+        <v>79736</v>
+      </c>
+      <c r="I23" t="n">
+        <v>48379</v>
+      </c>
+      <c r="J23" t="n">
+        <v>48379</v>
+      </c>
+      <c r="K23" t="n">
+        <v>25075</v>
+      </c>
+      <c r="L23" t="n">
+        <v>25075</v>
+      </c>
+      <c r="M23" t="n">
+        <v>94331</v>
+      </c>
+      <c r="N23" t="n">
+        <v>94331</v>
+      </c>
+      <c r="O23" t="n">
+        <v>69096</v>
+      </c>
+      <c r="P23" t="n">
+        <v>69096</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>32625</v>
+      </c>
+      <c r="R23" t="n">
+        <v>32625</v>
       </c>
     </row>
   </sheetData>
